--- a/entidades.xlsx
+++ b/entidades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t xml:space="preserve">Pokemon</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t xml:space="preserve">idAtaque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">position</t>
   </si>
   <si>
     <t xml:space="preserve">PokemonEquipoAtaque</t>
@@ -145,6 +148,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -210,12 +214,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -342,209 +350,219 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="20.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="20.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="0" t="s">
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="0" t="s">
+      <c r="O2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="M4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="M5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="M8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="I9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I10" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I12" s="0" t="s">
-        <v>32</v>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I13" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I15" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I16" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I17" s="0" t="s">
-        <v>36</v>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I19" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
